--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4003628408551129</v>
+        <v>0.4240171225616384</v>
       </c>
       <c r="D2">
-        <v>0.6889402231019801</v>
+        <v>0.6756706158697217</v>
       </c>
       <c r="E2">
         <v>0.6168146430352067</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.224805218724361</v>
+        <v>1.297472637530896</v>
       </c>
       <c r="D3">
-        <v>0.2208204247191479</v>
+        <v>0.2079096124338125</v>
       </c>
       <c r="E3">
         <v>0.6168146430352067</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.4244582057706408</v>
+        <v>0.3643212262931096</v>
       </c>
       <c r="D4">
-        <v>0.6712860603700319</v>
+        <v>0.7190964590771953</v>
       </c>
       <c r="E4">
         <v>0.6168146430352067</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.9879480893630456</v>
+        <v>0.985074431693005</v>
       </c>
       <c r="D5">
-        <v>0.3233204197826602</v>
+        <v>0.3352979926210433</v>
       </c>
       <c r="E5">
         <v>0.6168146430352067</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7014697291116412</v>
+        <v>0.6314105431313786</v>
       </c>
       <c r="D6">
-        <v>0.4831071327406269</v>
+        <v>0.5342782959237495</v>
       </c>
       <c r="E6">
         <v>0.6083913807081696</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.03169851895166693</v>
+        <v>0.02712534776445143</v>
       </c>
       <c r="D7">
-        <v>0.9747162435058263</v>
+        <v>0.9786043132061861</v>
       </c>
       <c r="E7">
         <v>0.6083913807081696</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.3137251515223927</v>
+        <v>0.2850583328217302</v>
       </c>
       <c r="D8">
-        <v>0.7537687673284474</v>
+        <v>0.7782657717969599</v>
       </c>
       <c r="E8">
         <v>0.6083913807081696</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.6503063635733942</v>
+        <v>-0.5257199648938949</v>
       </c>
       <c r="D9">
-        <v>0.5155833173712421</v>
+        <v>0.6043420937303678</v>
       </c>
       <c r="E9">
         <v>0.5928262217484618</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.4690975912022867</v>
+        <v>-0.4024798423297293</v>
       </c>
       <c r="D10">
-        <v>0.639060785130054</v>
+        <v>0.6912149222710582</v>
       </c>
       <c r="E10">
         <v>0.5928262217484618</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.2885085212684233</v>
+        <v>0.2436863133095518</v>
       </c>
       <c r="D11">
-        <v>0.7729931211636147</v>
+        <v>0.8097317954739653</v>
       </c>
       <c r="E11">
         <v>0.6075954595268775</v>
